--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H100_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5075987841945289</v>
+        <v>0.4772036474164134</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09032910486128169</v>
+        <v>0.09562719479444291</v>
       </c>
       <c r="J2" t="n">
-        <v>1160.512005914305</v>
+        <v>1253.470562318317</v>
       </c>
       <c r="K2" t="n">
-        <v>1673300.476189828</v>
+        <v>2040515.505617888</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.561160591113</v>
+        <v>1428.466137371792</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6853828737957716</v>
+        <v>0.6163384081414445</v>
       </c>
     </row>
   </sheetData>
